--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1918720.724787797</v>
+        <v>1994250.394452602</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>907340.9941020138</v>
+        <v>1267095.125947807</v>
       </c>
     </row>
     <row r="8">
@@ -659,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>91.84965892828932</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>64.59540826652895</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -817,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>14.59689039088861</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>184.7926970666894</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>104.8523999133008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>36.17724524739476</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>80.50025882551928</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>264.6775962007219</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>372.3935585544893</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1184,19 +1186,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>197.8753414835264</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>213.6660920096879</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>25.60281064416414</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>131.339892681535</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1897,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.63559668982369</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836072</v>
       </c>
       <c r="T19" t="n">
-        <v>161.0156334937748</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>104.435614114766</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>17.78458198347539</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>10.67818248838513</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002169</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>20.82402696096542</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>143.2925104849746</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3244,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>169.7438101404419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>120.8530343211863</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>95.21386414157247</v>
       </c>
       <c r="T37" t="n">
-        <v>203.5330926723469</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>195.5559609429028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>283.3580910135614</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>70.09706474908191</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>146.1854691670918</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2549.342968287817</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2330.70830125988</v>
       </c>
       <c r="U2" t="n">
-        <v>2182.06035969704</v>
+        <v>2330.70830125988</v>
       </c>
       <c r="V2" t="n">
-        <v>2182.06035969704</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.06035969704</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.06035969704</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.921027721229</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>713.3846504782639</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>565.2379919124478</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="T4" t="n">
-        <v>512.0527750937034</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="U4" t="n">
-        <v>222.8791647482714</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1328.817756940316</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1328.817756940316</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>970.5520583335656</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>584.7638057353213</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>173.7779009457137</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>159.8544968843046</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>159.8544968843046</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2605.57772958165</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2386.943062553713</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2133.181277191804</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2133.181277191804</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1780.41262192169</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1780.41262192169</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>773.5003462121387</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.64725977017</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.373795869721</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890065</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504894</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.919485916526</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C7" t="n">
-        <v>477.919485916526</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>327.8028465041903</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>327.8028465041903</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>180.9128990062799</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>180.9128990062799</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.919485916526</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4799,31 +4801,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2266.068831556293</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2012.307046194385</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1681.244158850814</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592772</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.708500331692</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>702.2675593133392</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C10" t="n">
-        <v>702.2675593133392</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>552.1509199010035</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
         <v>99.59950625323012</v>
@@ -4960,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X10" t="n">
-        <v>702.2675593133392</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.2675593133392</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,31 +5108,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1120.26893587578</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.604255405482</v>
+        <v>1019.893908186784</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.124911043099</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O12" t="n">
         <v>2033.878325127062</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>954.8146123150548</v>
       </c>
     </row>
     <row r="14">
@@ -5255,25 +5257,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5294,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1942790685366</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N15" t="n">
-        <v>1283.714934706155</v>
+        <v>1938.523579407784</v>
       </c>
       <c r="O15" t="n">
-        <v>1953.178696008814</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5515,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5543,10 +5545,10 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5580,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L18" t="n">
-        <v>493.5013994809973</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M18" t="n">
-        <v>1092.65561809896</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N18" t="n">
-        <v>1897.067196363111</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>303.4081673726104</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>303.4081673726104</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426789</v>
+        <v>303.4081673726104</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>303.4081673726104</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>303.4081673726104</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>135.232845692431</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028583</v>
@@ -5674,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T19" t="n">
-        <v>1336.274216523786</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="U19" t="n">
-        <v>1336.274216523786</v>
+        <v>786.0822064765146</v>
       </c>
       <c r="V19" t="n">
-        <v>1081.589728317899</v>
+        <v>531.3977182706277</v>
       </c>
       <c r="W19" t="n">
-        <v>792.1725582809389</v>
+        <v>531.3977182706277</v>
       </c>
       <c r="X19" t="n">
-        <v>564.1830073829216</v>
+        <v>303.4081673726104</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.1830073829216</v>
+        <v>303.4081673726104</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5746,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,13 +5779,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.770682899239</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="N21" t="n">
-        <v>1542.291338536857</v>
+        <v>1943.479731976179</v>
       </c>
       <c r="O21" t="n">
-        <v>2211.755099839516</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.6859735286132</v>
+        <v>284.1174986139255</v>
       </c>
       <c r="C22" t="n">
-        <v>665.6859735286132</v>
+        <v>115.1813156860186</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>115.1813156860186</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="Y22" t="n">
-        <v>665.6859735286132</v>
+        <v>465.7659634441652</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5975,64 +5977,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095317</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>3525.606699852206</v>
+        <v>842.3780325293667</v>
       </c>
       <c r="M24" t="n">
-        <v>4293.974846244667</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N24" t="n">
-        <v>4293.974846244667</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O24" t="n">
-        <v>4293.974846244667</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698579</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,16 +6247,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>508.1073603047985</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="M27" t="n">
-        <v>828.4426798345003</v>
+        <v>1062.192621491224</v>
       </c>
       <c r="N27" t="n">
-        <v>1476.356849144414</v>
+        <v>1392.055249155257</v>
       </c>
       <c r="O27" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4255.500682889111</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C28" t="n">
-        <v>4086.564499961204</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D28" t="n">
-        <v>3936.447860548868</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E28" t="n">
-        <v>3788.534766966475</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F28" t="n">
-        <v>3788.534766966475</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G28" t="n">
-        <v>3620.359445286296</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>3469.941436834239</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916678</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380588</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.7234906252</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636329</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403512</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929844</v>
+        <v>4744.160657054477</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>4520.375241843983</v>
       </c>
       <c r="U28" t="n">
-        <v>4437.14914771935</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V28" t="n">
-        <v>4437.14914771935</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W28" t="n">
-        <v>4437.14914771935</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X28" t="n">
-        <v>4437.14914771935</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y28" t="n">
-        <v>4437.14914771935</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6461,13 +6463,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6497,16 +6499,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>524.8026352651293</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1138.699705022018</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1138.699705022018</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.0071030383403</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C31" t="n">
-        <v>675.0071030383403</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D31" t="n">
-        <v>653.9727323706985</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883054</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>241.9570010410683</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028583</v>
@@ -6640,31 +6642,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035276</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247821</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383403</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>675.0071030383403</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>675.0071030383403</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X31" t="n">
-        <v>675.0071030383403</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y31" t="n">
-        <v>675.0071030383403</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6679,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
@@ -6716,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="L33" t="n">
-        <v>618.8589595388348</v>
+        <v>385.4732965321074</v>
       </c>
       <c r="M33" t="n">
-        <v>1318.370476901345</v>
+        <v>1153.841442924569</v>
       </c>
       <c r="N33" t="n">
-        <v>2122.782055165496</v>
+        <v>1958.253021188719</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1164.05575190923</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>874.9271131227881</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851654</v>
+        <v>620.2426249169013</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814693</v>
+        <v>330.8254548799407</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6953,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>232.333204354932</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>479.098332261396</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1402.74065021288</v>
       </c>
       <c r="T37" t="n">
-        <v>982.3321745379599</v>
+        <v>1178.955235002386</v>
       </c>
       <c r="U37" t="n">
-        <v>982.3321745379599</v>
+        <v>1178.955235002386</v>
       </c>
       <c r="V37" t="n">
-        <v>727.647686332073</v>
+        <v>924.2707467964987</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>924.2707467964987</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>696.2811958984813</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1659.000326757765</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.000326757765</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O39" t="n">
-        <v>2328.464088060424</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7405,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7412,7 +7414,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7491,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>519.8631468864791</v>
       </c>
       <c r="L42" t="n">
-        <v>263.5382936126482</v>
+        <v>519.8631468864791</v>
       </c>
       <c r="M42" t="n">
-        <v>1031.90644000511</v>
+        <v>1288.23129327894</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.809122337732</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U43" t="n">
-        <v>1212.69597660481</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V43" t="n">
-        <v>958.0114883989231</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W43" t="n">
-        <v>668.5943183619626</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="44">
@@ -7649,25 +7651,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,7 +7684,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>3359.285497699842</v>
       </c>
       <c r="M45" t="n">
-        <v>1288.32563221405</v>
+        <v>3359.285497699842</v>
       </c>
       <c r="N45" t="n">
-        <v>1808.163466324677</v>
+        <v>4163.697075963993</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>527.3450129705744</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705744</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1228.191144565291</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="W46" t="n">
-        <v>527.3450129705744</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X46" t="n">
-        <v>527.3450129705744</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y46" t="n">
-        <v>527.3450129705744</v>
+        <v>711.072954880832</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>328.5772445435321</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>67.42204916333594</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9960,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>137.9476282330537</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>94.57074316089779</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>63.994506327024</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>185.5129217193558</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,10 +11150,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>72.76773198847417</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>191.8941479258533</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>17.27558033667739</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338565</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>111.2782316777124</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>60.53192756461445</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>44.17985890344634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>128.6493806630938</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>44.278393308918</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>99.74106297588686</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338635</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>127.7914460572469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5.621317882561556</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>82.39383318338608</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>104.8566210678509</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>102.7069458420308</v>
       </c>
       <c r="T37" t="n">
-        <v>18.01446838604235</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>90.96703739368823</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25834,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.87926138501598</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>151.4504963093073</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>140.3375291694992</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.384409845</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.3246721361</v>
+      </c>
+      <c r="F2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="G2" t="n">
+        <v>488786.3246721357</v>
+      </c>
+      <c r="H2" t="n">
+        <v>488786.3246721356</v>
+      </c>
+      <c r="I2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="F2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="K2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="I2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="J2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.324672136</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721357</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905759235</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758692</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758692</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26473,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871661</v>
@@ -26488,16 +26490,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933961</v>
+        <v>-298734.9902933963</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211485</v>
+        <v>291232.8889211484</v>
       </c>
       <c r="D6" t="n">
         <v>291232.8889211487</v>
@@ -26531,37 +26533,37 @@
         <v>-129148.8314440527</v>
       </c>
       <c r="F6" t="n">
+        <v>396011.2050328437</v>
+      </c>
+      <c r="G6" t="n">
+        <v>396011.2050328432</v>
+      </c>
+      <c r="H6" t="n">
+        <v>396011.2050328431</v>
+      </c>
+      <c r="I6" t="n">
         <v>396011.2050328433</v>
-      </c>
-      <c r="G6" t="n">
-        <v>396011.2050328434</v>
-      </c>
-      <c r="H6" t="n">
-        <v>396011.2050328435</v>
-      </c>
-      <c r="I6" t="n">
-        <v>396011.2050328434</v>
       </c>
       <c r="J6" t="n">
         <v>219587.9858402506</v>
       </c>
       <c r="K6" t="n">
-        <v>396011.2050328433</v>
+        <v>396011.2050328434</v>
       </c>
       <c r="L6" t="n">
+        <v>396011.2050328434</v>
+      </c>
+      <c r="M6" t="n">
+        <v>261210.1897990062</v>
+      </c>
+      <c r="N6" t="n">
+        <v>396011.2050328432</v>
+      </c>
+      <c r="O6" t="n">
         <v>396011.2050328435</v>
       </c>
-      <c r="M6" t="n">
-        <v>261210.1897990066</v>
-      </c>
-      <c r="N6" t="n">
-        <v>396011.2050328433</v>
-      </c>
-      <c r="O6" t="n">
-        <v>396011.2050328433</v>
-      </c>
       <c r="P6" t="n">
-        <v>396011.2050328436</v>
+        <v>396011.2050328434</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.56605388068222</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>186.6287592417603</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.52585956402569</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>40.24240839139486</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>47.07891633156048</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>138.2384675615768</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27791,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>75.67063001627587</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>21.84540213586911</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.34028310899129</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>18.57297887413142</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,19 +28016,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>11.36901344839634</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>200.106844744873</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28621,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28770,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28858,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29569,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29767,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29940,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-3.864878787377771e-12</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31370,7 +31372,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>160.69674311333</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31385,7 +31387,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31604,7 +31606,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,7 +31621,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,22 +31840,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>386.0590603056891</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>81.51477688711901</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31862,13 +31864,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>186.1196724825374</v>
       </c>
       <c r="P15" t="n">
-        <v>194.5877923618784</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32233,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,34 +32308,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>281.6352516043043</v>
+        <v>119.4431162246989</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32545,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>161.3943125352952</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32786,28 +32788,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>105.361178137595</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32965,7 +32967,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
@@ -33029,19 +33031,19 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>306.4580946184805</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33263,16 +33265,16 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>137.279577368327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33284,7 +33286,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33500,25 +33502,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>383.0062604371804</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33737,19 +33739,19 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>232.4121821352565</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>9.078794013801826</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33983,16 +33985,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34153,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34211,7 +34213,7 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>132.2901951676702</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34223,7 +34225,7 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34369,7 +34371,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
@@ -34390,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,22 +34456,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>154.8430966167901</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>392.982708636915</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>618.3450258292741</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>405.0858067151006</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>437.3857473148225</v>
       </c>
       <c r="P15" t="n">
-        <v>379.0761535874853</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>605.2062814322859</v>
+        <v>443.0141460526805</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>661.7718179415448</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>345.8826737609021</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>337.64714366118</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>274.5154640948606</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36677,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>654.4587568787007</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>420.3113304741618</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36762,7 +36764,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778055998</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36911,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>263.9033754065466</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187117</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>706.577290265162</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>376.9344454020059</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37238,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055997</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206028</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>94.57074316089751</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>332.6498238417834</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,19 +37630,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>374.4188833774902</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>258.9139932058898</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,10 +37870,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>405.962305386487</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>525.0887213238661</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>406.1091714490752</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1994250.394452602</v>
+        <v>1987233.37956089</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1267095.125947807</v>
+        <v>573225.4778021743</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>155.4624958322014</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>91.84965892828932</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>150.5571923222343</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.59689039088861</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>104.8523999133008</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>6.786859782537817</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>264.6775962007219</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>230.8810983265752</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1183,22 +1183,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>197.8753414835264</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>213.6660920096879</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>131.339892681535</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>79.28074486979446</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>191.6534898356754</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>37.63559668982369</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836072</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>17.78458198347539</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002169</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>143.2925104849746</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.46707130753606</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>57.64843562452401</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>120.8530343211863</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>95.21386414157247</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>55.22804619697927</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151917</v>
+        <v>253.1488561805826</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>70.09706474908191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>43.53776261087656</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>903.3817252132462</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>545.1160266064958</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>545.1160266064958</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>538.1705258572923</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2549.342968287817</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2330.70830125988</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2330.70830125988</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1999.645413916309</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1999.645413916309</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1999.645413916309</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1609.506081940498</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4391,16 +4391,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.9495687306105</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>398.5674257938014</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>251.677478295891</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>713.3846504782639</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>565.2379919124478</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.817756940316</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1328.817756940316</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>970.5520583335656</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>584.7638057353213</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>173.7779009457137</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>159.8544968843046</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>159.8544968843046</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2304.202100283389</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>1951.433445013275</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.957088916128</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.817756940316</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511405</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.4894537511405</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1550.991915879943</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1550.991915879943</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1192.726217273193</v>
       </c>
       <c r="E8" t="n">
         <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2266.068831556293</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2012.307046194385</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.244158850814</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1328.4755035807</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1328.4755035807</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,25 +5053,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>779.5615433385051</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.893908186784</v>
+        <v>1547.929689730966</v>
       </c>
       <c r="N12" t="n">
-        <v>1364.414563824402</v>
+        <v>1892.450345368584</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>954.8146123150548</v>
+        <v>496.3514742750683</v>
       </c>
       <c r="C13" t="n">
-        <v>954.8146123150548</v>
+        <v>327.4152913471614</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>177.2986519348257</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150548</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.8146123150548</v>
+        <v>677.999939105308</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5317,13 +5317,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.325632214049</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>1608.660951743751</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N15" t="n">
-        <v>1938.523579407784</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028583</v>
@@ -5442,7 +5442,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471189</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5536,19 +5536,19 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.698165809328</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>303.4081673726104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>303.4081673726104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>303.4081673726104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>303.4081673726104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>303.4081673726104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>135.232845692431</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473451</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262956</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765146</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706277</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706277</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>303.4081673726104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>303.4081673726104</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.325632214049</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1288.325632214049</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1943.479731976179</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>284.1174986139255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>115.1813156860186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>115.1813156860186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811258</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441652</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>465.7659634441652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>465.7659634441652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>842.3780325293667</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1149.698165809328</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2576.994400342258</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>777.4224042438901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6311,19 +6311,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>754.8724882112625</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1062.192621491224</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1392.055249155257</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4744.160657054477</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4520.375241843983</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4231.246603057541</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>3976.562114851654</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>3687.144944814693</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>3459.155393916676</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>579.0685056491545</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1323227212476</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="D31" t="n">
-        <v>410.1323227212476</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1323227212476</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="F31" t="n">
-        <v>410.1323227212476</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="G31" t="n">
-        <v>241.9570010410683</v>
+        <v>252.147293152278</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>101.7292847002213</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X31" t="n">
-        <v>981.5095496229244</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.7169704793943</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="32">
@@ -6682,55 +6682,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>138.7081686256434</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>385.4732965321074</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1153.841442924569</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1958.253021188719</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>208.7516828383384</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,46 +6864,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119724</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119724</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.05575190923</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="U34" t="n">
-        <v>874.9271131227881</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="V34" t="n">
-        <v>620.2426249169013</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W34" t="n">
-        <v>330.8254548799407</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X34" t="n">
-        <v>208.7516828383384</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.7516828383384</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>674.4285624571609</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M36" t="n">
-        <v>1003.751888060526</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N36" t="n">
-        <v>1808.163466324677</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.2811958984813</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1402.74065021288</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1178.955235002386</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1178.955235002386</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V37" t="n">
-        <v>924.2707467964987</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W37" t="n">
-        <v>924.2707467964987</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X37" t="n">
-        <v>696.2811958984813</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y37" t="n">
-        <v>696.2811958984813</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7265,10 +7265,10 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2234.893232091767</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2234.893232091767</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7362,19 +7362,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,19 +7399,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>519.8631468864791</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>519.8631468864791</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1288.23129327894</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4231.246603057541</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851654</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814693</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916676</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916676</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7675,25 +7675,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>2745.388427942954</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>3359.285497699842</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>3359.285497699842</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>4163.697075963993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1228.191144565291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>939.0625057788493</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>939.0625057788493</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>939.0625057788493</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X46" t="n">
-        <v>711.072954880832</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y46" t="n">
-        <v>711.072954880832</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9260,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>328.5772445435321</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>176.2939891734763</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>137.9476282330537</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>94.57074316089779</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>185.5129217193558</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>17.27558033667739</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67.15321777677471</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,55 +23509,55 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.193711796076968e-12</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>26.93116351641936</v>
       </c>
     </row>
     <row r="17">
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>111.2782316777124</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>128.6493806630938</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>44.278393308918</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338635</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.621317882561556</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>105.9521741567359</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>52.31591677926878</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>104.8566210678509</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>102.7069458420308</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>231.0093062015981</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338568</v>
+        <v>33.08849621799479</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>151.4504963093073</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>175.0468907412182</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.384409845</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
+        <v>488786.3246721357</v>
+      </c>
+      <c r="G2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="H2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="I2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="G2" t="n">
-        <v>488786.3246721357</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.3246721356</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="J2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488786.3246721359</v>
-      </c>
       <c r="L2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721357</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="H4" t="n">
-        <v>787.7936905759235</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933963</v>
+        <v>-298734.9902933965</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211484</v>
+        <v>291232.8889211483</v>
       </c>
       <c r="D6" t="n">
-        <v>291232.8889211487</v>
+        <v>291232.888921149</v>
       </c>
       <c r="E6" t="n">
-        <v>-129148.8314440527</v>
+        <v>-130123.4227037742</v>
       </c>
       <c r="F6" t="n">
-        <v>396011.2050328437</v>
+        <v>395036.6137731216</v>
       </c>
       <c r="G6" t="n">
-        <v>396011.2050328432</v>
+        <v>395036.6137731215</v>
       </c>
       <c r="H6" t="n">
-        <v>396011.2050328431</v>
+        <v>395036.6137731216</v>
       </c>
       <c r="I6" t="n">
-        <v>396011.2050328433</v>
+        <v>395036.6137731218</v>
       </c>
       <c r="J6" t="n">
-        <v>219587.9858402506</v>
+        <v>218613.3945805288</v>
       </c>
       <c r="K6" t="n">
-        <v>396011.2050328434</v>
+        <v>395036.6137731216</v>
       </c>
       <c r="L6" t="n">
-        <v>396011.2050328434</v>
+        <v>395036.6137731216</v>
       </c>
       <c r="M6" t="n">
-        <v>261210.1897990062</v>
+        <v>260235.5985392845</v>
       </c>
       <c r="N6" t="n">
-        <v>396011.2050328432</v>
+        <v>395036.6137731216</v>
       </c>
       <c r="O6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731216</v>
       </c>
       <c r="P6" t="n">
-        <v>396011.2050328434</v>
+        <v>395036.6137731216</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>258.3216741885936</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.56605388068222</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>16.75260993681664</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.52585956402569</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>47.07891633156048</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.66146057512</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>21.84540213586911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27852,23 +27852,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>151.0492717456866</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>18.57297887413142</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>11.36901344839634</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28772,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29942,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-3.864878787377771e-12</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>87.78329382423951</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31384,10 +31384,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31603,10 +31603,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31624,7 +31624,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>81.51477688711901</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>232.6582927241529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
@@ -32004,16 +32004,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946991</v>
@@ -32028,7 +32028,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
         <v>0.2670576580354892</v>
@@ -32074,25 +32074,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>186.1196724825374</v>
+        <v>295.1683754480589</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,19 +32153,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
@@ -32174,22 +32174,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,34 +32308,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>119.4431162246989</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,25 +32788,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>105.361178137595</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,16 +32964,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,28 +33034,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,28 +33271,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304447</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>9.078794013801826</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,28 +33982,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>132.2901951676702</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,25 +34359,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,28 +34456,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>154.8430966167901</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>405.0858067151006</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>483.924367556438</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>437.3857473148225</v>
+        <v>546.434450280344</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>443.0141460526805</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35980,13 +35980,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,13 +36208,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>661.7718179415448</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>337.64714366118</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>36.31221508745475</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>420.3113304741618</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>376.9344454020059</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37238,16 +37238,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778055997</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>332.6498238417834</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>392.6063366508805</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>258.9139932058898</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>406.1091714490752</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1987233.37956089</v>
+        <v>1992172.642409923</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>573225.4778021743</v>
+        <v>579927.1120924157</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>295.9408816142896</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>155.4624958322014</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>150.5571923222343</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>292.5505447168882</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>6.786859782537817</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>230.8810983265752</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>68.14130809906187</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>79.28074486979446</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>42.02510219382533</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>190.2722908087729</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6534898356754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>180.7707313555696</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>76.01948181417649</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4.46707130753606</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.64843562452401</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>139.6397450201829</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>55.22804619697927</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="38">
@@ -3559,10 +3559,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>271.7818641996879</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>34.71361063512837</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.92398245200191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>253.1488561805826</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.53776261087656</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.344242153658</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>903.3817252132462</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>545.1160266064958</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>545.1160266064958</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>538.1705258572923</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,10 +4360,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
@@ -4375,7 +4375,7 @@
         <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>546.4805193761945</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>398.5674257938014</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>251.677478295891</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1480.395363208549</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1094.607110610304</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.26498762696</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.26498762696</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2304.202100283389</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.433445013275</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1577.967686752195</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1187.828354776384</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.991915879943</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.991915879943</v>
+        <v>880.7499412272348</v>
       </c>
       <c r="D8" t="n">
-        <v>1192.726217273193</v>
+        <v>522.4842426204843</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>136.6959900222401</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.591755944065</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>779.5615433385051</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1547.929689730966</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N12" t="n">
-        <v>1892.450345368584</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>496.3514742750683</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C13" t="n">
-        <v>327.4152913471614</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D13" t="n">
-        <v>177.2986519348257</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>139.666689635867</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488382</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488382</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>898.7925182488382</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>677.999939105308</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
         <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>1095.548343721096</v>
+        <v>1050.107891292278</v>
       </c>
       <c r="N15" t="n">
-        <v>1899.959921985247</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1106.80202733328</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>852.117539127393</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305956</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,7 +5603,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N18" t="n">
         <v>1128.069692924718</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>716.1958199098792</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5989,22 +5989,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6077,19 +6077,19 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N24" t="n">
-        <v>2056.693778606511</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="O24" t="n">
-        <v>2056.693778606511</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2576.994400342258</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.4224552801976</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.4224552801976</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.4224552801976</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.4224552801976</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>252.147293152278</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>101.7292847002213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324574</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>420.3226148324574</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>420.3226148324574</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,10 +6776,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047985</v>
@@ -6788,7 +6788,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1440.685527502828</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1440.685527502828</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1440.685527502828</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1440.685527502828</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1186.001039296941</v>
+        <v>868.8173741918786</v>
       </c>
       <c r="W34" t="n">
-        <v>896.58386925998</v>
+        <v>579.400204154918</v>
       </c>
       <c r="X34" t="n">
-        <v>668.5943183619627</v>
+        <v>579.400204154918</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.8017392184325</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6931,25 +6931,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7028,7 +7028,7 @@
         <v>1479.482307609636</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.893885873787</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1019.424940013486</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>764.7404518075996</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>475.3232817706389</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X37" t="n">
-        <v>247.3337308726216</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7171,37 +7171,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>800.6837097077201</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>545.9992215018333</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7493,13 +7493,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>462.4595652127118</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>293.5233822848049</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1019.424940013486</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V43" t="n">
-        <v>764.7404518075996</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W43" t="n">
-        <v>475.3232817706389</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X43" t="n">
-        <v>247.3337308726216</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3337308726216</v>
+        <v>644.1080300429516</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7736,7 +7736,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>972.2646934632137</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1244.231782352015</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>1016.242231453998</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>972.2646934632137</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8623401849288</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9503,7 +9503,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.2939891734763</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9977,7 +9977,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.15321777677471</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>103.3959458291059</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>95.96506158980444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.93116351641936</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>71.36691196825842</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>90.4740866492011</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>105.9521741567359</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>52.31591677926878</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>112.4978983036451</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>231.0093062015981</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>14.45548819888944</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>190.9960447539088</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>64.69149056621045</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>33.08849621799479</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>175.0468907412182</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651774</v>
@@ -26325,37 +26325,37 @@
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721357</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="I2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="J2" t="n">
+        <v>488786.3246721357</v>
+      </c>
+      <c r="K2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="L2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="M2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="N2" t="n">
+        <v>488786.3246721357</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="L2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
@@ -26450,16 +26450,16 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933965</v>
+        <v>-298734.9902933962</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211483</v>
+        <v>291232.8889211485</v>
       </c>
       <c r="D6" t="n">
-        <v>291232.888921149</v>
+        <v>291232.8889211488</v>
       </c>
       <c r="E6" t="n">
-        <v>-130123.4227037742</v>
+        <v>-129246.2905700248</v>
       </c>
       <c r="F6" t="n">
-        <v>395036.6137731216</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="G6" t="n">
-        <v>395036.6137731215</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="H6" t="n">
-        <v>395036.6137731216</v>
+        <v>395913.7459068711</v>
       </c>
       <c r="I6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="J6" t="n">
-        <v>218613.3945805288</v>
+        <v>219490.5267142781</v>
       </c>
       <c r="K6" t="n">
-        <v>395036.6137731216</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="L6" t="n">
-        <v>395036.6137731216</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="M6" t="n">
-        <v>260235.5985392845</v>
+        <v>261112.7306730341</v>
       </c>
       <c r="N6" t="n">
-        <v>395036.6137731216</v>
+        <v>395913.745906871</v>
       </c>
       <c r="O6" t="n">
-        <v>395036.6137731216</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="P6" t="n">
-        <v>395036.6137731216</v>
+        <v>395913.7459068712</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>85.98948845797219</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>258.3216741885936</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.75260993681664</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>114.3255010248232</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27669,22 +27669,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>209.66146057512</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>151.0492717456866</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>338.7347376426496</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -31609,7 +31609,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071302</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>232.6582927241529</v>
+        <v>394.9841349460416</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31864,13 +31864,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32086,28 +32086,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>406.6589640746882</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>295.1683754480589</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32326,7 +32326,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32575,7 +32575,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32797,22 +32797,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>273.8226464915811</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33049,7 +33049,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33286,7 +33286,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33426,7 +33426,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304447</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565519</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33523,7 +33523,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33748,10 +33748,10 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>131.4209907335605</v>
       </c>
       <c r="O36" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33760,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.0697047810465</v>
@@ -33976,7 +33976,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33985,7 +33985,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33997,7 +33997,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34213,7 +34213,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
@@ -34222,7 +34222,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34234,7 +34234,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35257,22 +35257,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>483.924367556438</v>
+        <v>646.2502097783267</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>730.2299939026698</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>546.434450280344</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35986,7 +35986,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36445,22 +36445,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>525.0887213238661</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.31221508745475</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -37074,7 +37074,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221117</v>
@@ -37156,10 +37156,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>479.4216529937808</v>
       </c>
       <c r="O36" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>343.110726770052</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
@@ -37633,7 +37633,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
@@ -37870,7 +37870,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
